--- a/Planeacion/Bitacora.xlsx
+++ b/Planeacion/Bitacora.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Fecha</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Listado de necesidades</t>
+  </si>
+  <si>
+    <t>Caso de uso (ERS)</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -138,7 +141,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,16 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -490,9 +494,41 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <v>42636</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.20277777777777781</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.23402777777777781</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>42643</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5.2777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Planeacion/Bitacora.xlsx
+++ b/Planeacion/Bitacora.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Fecha</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Caso de uso (ERS)</t>
+  </si>
+  <si>
+    <t>Diagrama de actividades</t>
+  </si>
+  <si>
+    <t>Receso</t>
   </si>
 </sst>
 </file>
@@ -132,6 +138,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -141,8 +149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,33 +441,33 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>42633</v>
       </c>
@@ -474,9 +480,11 @@
       <c r="E3" s="3">
         <v>0.25</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>42633</v>
       </c>
@@ -493,7 +501,7 @@
         <v>2.7083333333333334E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>42636</v>
       </c>
@@ -510,11 +518,11 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>42643</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3">
@@ -527,8 +535,34 @@
         <v>5.2777777777777778E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>42647</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.18194444444444444</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.22291666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Planeacion/Bitacora.xlsx
+++ b/Planeacion/Bitacora.xlsx
@@ -56,7 +56,7 @@
     <t>Diagrama de actividades</t>
   </si>
   <si>
-    <t>Receso</t>
+    <t>Diagrama de secuencias</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -149,6 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -551,18 +552,34 @@
       <c r="F7" s="3">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>42682</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
-        <v>0.21180555555555555</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.22291666666666665</v>
+      <c r="D8" s="3">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5.9722222222222225E-2</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
